--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>2001,2002,2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resPath[.][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinshoucun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景资源目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,10 +728,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -728,11 +740,13 @@
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="85.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="6"/>
+    <col min="5" max="5" width="77.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -748,8 +762,12 @@
       <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1">
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -765,8 +783,11 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -782,8 +803,11 @@
       <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -235,14 +235,6 @@
     <t>副本</t>
   </si>
   <si>
-    <t>1001,1002,1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001,2002,2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resPath[.][funcStr]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +244,14 @@
   </si>
   <si>
     <t>场景资源目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001001,10002001,10003001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001001,20002001,20003001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +731,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -763,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -801,10 +801,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -821,7 +821,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3795" windowWidth="1845" windowHeight="13620"/>
+    <workbookView xWindow="345" yWindow="3795" windowWidth="1980" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="@场景表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,25 +216,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpaceCopy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新手村</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本战地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本</t>
-  </si>
-  <si>
     <t>resPath[.][funcStr]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,14 +241,22 @@
   </si>
   <si>
     <t>20001001,20002001,20003001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OgreDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微端demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -402,6 +399,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -726,15 +728,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
@@ -746,7 +748,7 @@
     <col min="8" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -763,11 +765,11 @@
         <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -784,15 +786,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -801,27 +803,41 @@
         <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:B3"/>
   <sheetViews>
@@ -841,13 +857,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -855,9 +871,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -876,14 +892,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="53" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -894,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -902,7 +918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -910,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -918,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57">
+    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -929,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -940,7 +956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,7 +248,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微端demo</t>
+    <t>minidemo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +733,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -825,6 +825,9 @@
       <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -838,6 +841,9 @@
       </c>
       <c r="D5" s="6" t="s">
         <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>minidemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleportspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ogredemo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,10 +738,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -814,7 +822,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -844,6 +852,23 @@
       </c>
       <c r="F5" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,36 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>entities</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[.][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>funcTupleInt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type[.$][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,43 +190,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>resPath[.][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinshoucun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景资源目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minidemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleportspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ogredemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpaceDuplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>副本:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resPath[.][funcStr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinshoucun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景资源目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001001,10002001,10003001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001001,20002001,20003001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OgreDemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minidemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teleportspace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ogredemo</t>
+    <t>副本</t>
+  </si>
+  <si>
+    <t>Duplicate(副本)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-97.9299, 0, -158.922</t>
+  </si>
+  <si>
+    <t>spawnPos[.][funcTupleFloat]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>771.5861, 211.0021, 776.5501</t>
+  </si>
+  <si>
+    <t>-97.9299, 1.5, -158.922</t>
+  </si>
+  <si>
+    <t>0, 1.5, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -332,6 +326,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,10 +735,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -767,13 +764,13 @@
         <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -794,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -802,7 +799,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -811,10 +808,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -822,7 +819,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -831,10 +828,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -842,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -850,8 +847,11 @@
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -859,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -867,8 +867,31 @@
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +908,7 @@
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -904,7 +927,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,71 +186,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>resPath[.][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinshoucun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景资源目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minidemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleportspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ogredemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpaceDuplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+  </si>
+  <si>
+    <t>Duplicate(副本)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-97.9299, 0, -158.922</t>
+  </si>
+  <si>
+    <t>spawnPos[.][funcTupleFloat]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>771.5861, 211.0021, 776.5501</t>
+  </si>
+  <si>
+    <t>-97.9299, 1.5, -158.922</t>
+  </si>
+  <si>
+    <t>0, 1.5, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocos2d_js_demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108, 0, 108</t>
+  </si>
+  <si>
+    <t>kbengine_unity_demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>新手村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resPath[.][funcStr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinshoucun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景资源目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minidemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teleportspace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ogredemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpaceDuplicate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本</t>
-  </si>
-  <si>
-    <t>Duplicate(副本)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-97.9299, 0, -158.922</t>
-  </si>
-  <si>
-    <t>spawnPos[.][funcTupleFloat]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>771.5861, 211.0021, 776.5501</t>
-  </si>
-  <si>
-    <t>-97.9299, 1.5, -158.922</t>
-  </si>
-  <si>
-    <t>0, 1.5, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 0, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,10 +746,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -767,10 +778,10 @@
         <v>25</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -791,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -799,7 +810,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -808,10 +819,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -819,7 +830,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -828,10 +839,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -839,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -848,10 +859,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -859,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -868,30 +879,50 @@
         <v>19</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>38</v>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +958,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minidemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>teleportspace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +258,18 @@
   </si>
   <si>
     <t>新手村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于warring演示用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于OGRE演示demo用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,46 +754,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="77.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="6"/>
+    <col min="2" max="3" width="19.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="77.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -793,136 +802,151 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +982,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ogredemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpaceDuplicate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +266,17 @@
   </si>
   <si>
     <t>用于OGRE演示demo用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kbengine_ogre_demo</t>
+  </si>
+  <si>
+    <t>演示一个副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示一个传送的场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +764,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -787,7 +794,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>27</v>
@@ -802,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -822,10 +829,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -834,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>28</v>
@@ -845,10 +852,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -857,10 +864,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -868,10 +875,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -880,10 +887,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -893,6 +900,9 @@
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D6" s="2">
         <v>4</v>
       </c>
@@ -900,7 +910,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>30</v>
@@ -908,22 +918,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -931,10 +944,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -943,10 +956,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +995,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,10 +249,6 @@
     <t>108, 0, 108</t>
   </si>
   <si>
-    <t>kbengine_unity_demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新手村</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +273,14 @@
   </si>
   <si>
     <t>演示一个传送的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kbengine_unity3d_demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的3D演示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,13 +768,14 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="6" customWidth="1"/>
-    <col min="2" max="3" width="19.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="77.25" style="8" customWidth="1"/>
@@ -809,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -829,10 +834,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -852,10 +857,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -867,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -875,10 +880,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -890,7 +895,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -901,7 +906,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -924,7 +929,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cocos2d_js_demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>108, 0, 108</t>
   </si>
   <si>
@@ -281,6 +277,14 @@
   </si>
   <si>
     <t>简单的3D演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kbengine_cocos2d_js_demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示一个2D的html5项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,7 +772,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -814,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -834,10 +838,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -857,10 +861,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -872,7 +876,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -880,10 +884,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -895,7 +899,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -906,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -929,7 +933,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -949,10 +953,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -961,10 +965,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -242,9 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>108, 0, 108</t>
-  </si>
-  <si>
     <t>新手村</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,6 +282,10 @@
   </si>
   <si>
     <t>演示一个2D的html5项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108,0,90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +773,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -818,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -838,10 +839,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -861,10 +862,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -876,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -884,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -899,7 +900,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -910,7 +911,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -933,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -953,10 +954,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -965,10 +966,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="3795" windowWidth="1980" windowHeight="13620"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xinshoucun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>场景资源目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>duplicate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-97.9299, 0, -158.922</t>
   </si>
   <si>
@@ -286,6 +278,30 @@
   </si>
   <si>
     <t>108,0,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaces/xinshoucun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaces/kbengine_ogre_demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaces/kbengine_unity3d_demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaces/teleportspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaces/duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaces/kbengine_cocos2d_js_demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -313,6 +329,12 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -336,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -364,6 +386,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +470,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -773,7 +804,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -804,7 +835,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>27</v>
@@ -819,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -831,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -839,10 +870,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -851,10 +882,10 @@
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -862,10 +893,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -874,10 +905,10 @@
         <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -885,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -897,10 +928,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -908,10 +939,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -920,33 +951,33 @@
         <v>19</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -954,10 +985,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -966,16 +997,16 @@
         <v>19</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1005,7 +1036,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -11,12 +11,12 @@
     <sheet name="代对表=" sheetId="3" r:id="rId2"/>
     <sheet name="各字段说明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用于warring演示用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于OGRE演示demo用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简单的3D演示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kbengine_cocos2d_js_demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,6 +294,37 @@
   </si>
   <si>
     <t>spaces/kbengine_cocos2d_js_demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示Unreal engine4项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的unity3D演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于Warring项目演示用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kbengine_ue4_demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>spaces/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>kbengine_ue4_demo</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,10 +824,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -815,7 +838,7 @@
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="77.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="35.75" style="6" customWidth="1"/>
     <col min="8" max="8" width="23.375" style="6" customWidth="1"/>
     <col min="9" max="16384" width="8.875" style="6"/>
   </cols>
@@ -872,8 +895,8 @@
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
+      <c r="C3" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -885,7 +908,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -893,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -908,7 +931,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -916,10 +939,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -931,7 +954,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -942,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -954,7 +977,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -965,7 +988,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -977,7 +1000,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -985,10 +1008,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -997,10 +1020,33 @@
         <v>19</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>name</t>
@@ -125,6 +126,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>[.][func</t>
@@ -133,6 +135,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Str</t>
@@ -141,6 +144,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
@@ -155,6 +159,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>[.][func</t>
@@ -163,6 +168,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Str</t>
@@ -171,6 +177,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
@@ -324,6 +331,21 @@
         <charset val="134"/>
       </rPr>
       <t>kbengine_ue4_demo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-97.9299, 1.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>112</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,17 +363,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -381,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -414,6 +439,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -827,7 +855,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1042,8 +1070,8 @@
       <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>37</v>
+      <c r="F9" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>60</v>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/spaces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,21 +331,6 @@
         <charset val="134"/>
       </rPr>
       <t>kbengine_ue4_demo</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-97.9299, 1.5, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>112</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,9 +424,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,7 +837,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1070,8 +1052,8 @@
       <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>61</v>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>60</v>
